--- a/trend_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
+++ b/trend_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0077822056933169</v>
+        <v>0.992217794306683</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.130849062116533</v>
+        <v>0.869150937883467</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0094031079008113</v>
+        <v>0.990596892099189</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.004559560788196</v>
+        <v>0.995440439211804</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.754725317986339</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0074074074074074</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.659259259259259</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0111018739656714</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0141802456484722</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.043927976042314</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.00926126960649</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.942876660201306</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.851851851851852</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0295350404312662</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.06267326688330239</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.275770685632738</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very likely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.519602557806178</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.103030303030303</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.145454545454545</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0002001545416633</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001425644028103</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.995307592328165</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.624242424242424</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>80</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-4.53726708074534</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-8.527077626878921</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.49113038928407</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-5.67158385093168</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.92606279509679</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.794871794871795</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.320512820512821</v>
+      </c>
+      <c r="I32" t="n">
+        <v>19</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.673784895080118</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.47741935483871</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07741935483870969</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.86829419984298</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.335483870967742</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.580645161290323</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9999999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6125</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0592331360863969</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.047025054122528</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0711525974025974</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.735815355110521</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.996836897620097</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5575757575757579</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0009122127872127</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0017476076555023</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0003006005392856</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.94087827066551</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9859043615403</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.490909090909091</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0041809752747252</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0080364490384058</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0009009725487143</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.99094060701204</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.908786371229391</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0121212121212121</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.000334478021978</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0007744626105765</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.45425226946966</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rangitikei at u/s Bulls STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.980984678913308</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.921212121212121</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.175600961538461</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.442646695991028</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0198314742430078</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.53027322101529</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1803259.6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5548639.715</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
+++ b/trend_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.988654801634245</v>
+        <v>0.141456281729897</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.777777777777778</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148006524725275</v>
+        <v>-0.0519656048515338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0342886470603162</v>
+        <v>-0.180515182189557</v>
       </c>
       <c r="M2" t="n">
-        <v>0.267479179233766</v>
+        <v>0.0395034045973022</v>
       </c>
       <c r="N2" t="n">
-        <v>13.4551386113886</v>
+        <v>-6.37614783454403</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.992217794306683</v>
+        <v>0.383733986980362</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.929824561403509</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.81</v>
+        <v>10.88</v>
       </c>
       <c r="K3" t="n">
-        <v>0.166717054840064</v>
+        <v>-0.026262126031863</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0320488905614249</v>
+        <v>-0.108909137533539</v>
       </c>
       <c r="M3" t="n">
-        <v>0.260490426900547</v>
+        <v>0.053510011692167</v>
       </c>
       <c r="N3" t="n">
-        <v>1.54224842590254</v>
+        <v>-0.241379834851682</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.976556772494053</v>
+        <v>0.176241673112413</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>0.0095</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0009154135338344999</v>
+        <v>0.0003013613861386</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0018176248683363</v>
+        <v>-0.0002314904093455</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0011968521313838</v>
       </c>
       <c r="N4" t="n">
-        <v>-9.154135338345871</v>
+        <v>3.17222511724857</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.550770328265725</v>
+        <v>0.0505720276754553</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.620689655172414</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>63.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9.90732368896926</v>
       </c>
       <c r="L5" t="n">
-        <v>-12.6608728461615</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.681708420511031</v>
+        <v>20.8714285714286</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>15.6020845495579</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.296348080296327</v>
+        <v>0.825453474429986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8301886792452829</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39622641509434</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,25 +1028,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.934515520899863</v>
+        <v>0.9981250802728751</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0002956584563964</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.658788342459747</v>
+        <v>0.0111411723199141</v>
       </c>
       <c r="G8" t="n">
-        <v>0.344827586206897</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="H8" t="n">
-        <v>0.637931034482759</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0275</v>
+        <v>0.043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0039711376477296</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0060472039584125</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0085548299496174</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9.23520383192937</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.869150937883467</v>
+        <v>0.014274113693631</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.789473684210526</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.23</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0337297193877551</v>
+        <v>-0.0542201110627181</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0134854277902067</v>
+        <v>-0.100464484242737</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0802747252747253</v>
+        <v>-0.0166983879257228</v>
       </c>
       <c r="N9" t="n">
-        <v>0.409838631685967</v>
+        <v>-0.660415481884508</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.776458152255067</v>
+        <v>0.0097270581326189</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H10" t="n">
-        <v>0.689655172413793</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0375</v>
+        <v>0.04575</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.001166412210401</v>
+        <v>0.0051409262564061</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.008190093050482201</v>
+        <v>0.0010013905797897</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0009887103411466999</v>
+        <v>0.009144920145747</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.1104325610695</v>
+        <v>11.236997281762</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9119662505941289</v>
+        <v>0.2745648729564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.120689655172414</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.517241379310345</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.5</v>
+        <v>0.18</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.985831754935528</v>
+        <v>0.0058749446118397</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.98749281327499</v>
+        <v>-0.0094632097243477</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0200672656426021</v>
       </c>
       <c r="N11" t="n">
-        <v>-15.1666423836235</v>
+        <v>3.26385811768877</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.973355082686563</v>
+        <v>0.0607942317438832</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.568965517241379</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.185</v>
+        <v>0.024</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0163058035714286</v>
+        <v>0.0028249545040946</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0401373626373626</v>
+        <v>-0.0003326798086329</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.003343403509206</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N12" t="n">
-        <v>-8.81394787644788</v>
+        <v>11.770643767061</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.920766055475546</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.620689655172414</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0017687651331719</v>
+        <v>0.009938775510203999</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0040137362637362</v>
+        <v>-0.472244085883524</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.435303955371596</v>
       </c>
       <c r="N13" t="n">
-        <v>-8.84382566585956</v>
+        <v>0.198775510204081</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9909973244872921</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.009803921568627401</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.754901960784314</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.165</v>
+        <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.609586195054945</v>
+        <v>0.0004167617526243</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.66776495381552</v>
+        <v>-0.0358445764912812</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.228876181654861</v>
+        <v>0.0279041394873963</v>
       </c>
       <c r="N14" t="n">
-        <v>-14.6359230505389</v>
+        <v>0.0595373932320533</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.487539136856393</v>
+        <v>0.99127818363926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0096153846153846</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75</v>
+        <v>0.887931034482759</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>10.71</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0333409402099497</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0378335414174654</v>
+        <v>0.0089437977215748</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0333252151290389</v>
+        <v>0.0700399886102132</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.311306631278708</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.990596892099189</v>
+        <v>0.730672204375732</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.896551724137931</v>
+        <v>0.194915254237288</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.775</v>
+        <v>0.01</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0483443633044271</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0161654461506721</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0818210286190172</v>
+        <v>0.0001607189074636</v>
       </c>
       <c r="N16" t="n">
-        <v>0.448671585191899</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6359005413216799</v>
+        <v>0.6538092679404059</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.186440677966102</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008999999999999999</v>
+        <v>69</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.636324041811847</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0002859099804305</v>
+        <v>-4.01097322981837</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001674659596589</v>
+        <v>2.72041364586077</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.922208756249053</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.729139773003078</v>
+        <v>0.344373041635594</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.8738738738738741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.559322033898305</v>
+        <v>0.288288288288288</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>64</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.06104750512645</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.79765969349366</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.5001297050539</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.65788672676008</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,23 +2112,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.278197734347566</v>
+        <v>0.991969124385604</v>
       </c>
       <c r="G19" t="n">
-        <v>0.864864864864865</v>
+        <v>0.449152542372881</v>
       </c>
       <c r="H19" t="n">
-        <v>0.297297297297297</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="I19" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.0015</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,23 +2203,23 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.990426945121345</v>
+        <v>0.0310567320434317</v>
       </c>
       <c r="G20" t="n">
-        <v>0.38135593220339</v>
+        <v>0.330508474576271</v>
       </c>
       <c r="H20" t="n">
-        <v>0.076271186440678</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002</v>
+        <v>0.0393</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0008359019833608</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.430428885938726</v>
+        <v>0.9627976805317719</v>
       </c>
       <c r="G21" t="n">
-        <v>0.38135593220339</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.593220338983051</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0275</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0159934318555008</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0340032921731978</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.196479506824335</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.995440439211804</v>
+        <v>0.0647470631555874</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="H22" t="n">
-        <v>0.608695652173913</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.16</v>
+        <v>0.04515</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0228727984344423</v>
+        <v>0.0009845013477087999</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0058921417531489</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0359634829416054</v>
+        <v>0.0025001148680041</v>
       </c>
       <c r="N22" t="n">
-        <v>0.280303902382871</v>
+        <v>2.18051239802635</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.13253160505164</v>
+        <v>0.375172068979992</v>
       </c>
       <c r="G23" t="n">
-        <v>0.110169491525424</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.567796610169492</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.035</v>
+        <v>0.195</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004989837910472</v>
+        <v>0.0004664042029137</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.004297242413163</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0011636253569959</v>
+        <v>0.0050014114290315</v>
       </c>
       <c r="N23" t="n">
-        <v>1.42566797442081</v>
+        <v>0.239181642519867</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.987134516400787</v>
+        <v>0.325908617525228</v>
       </c>
       <c r="G24" t="n">
-        <v>0.076271186440678</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.440677966101695</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>0.024</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.345367974908762</v>
+        <v>0.000224788067347</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.8352339064588939</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.001003390467801</v>
       </c>
       <c r="N24" t="n">
-        <v>-3.83742194343068</v>
+        <v>0.9366169472793781</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.54216451422923</v>
+        <v>0.860697556049758</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.567796610169492</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1785</v>
+        <v>6.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.120757216341755</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0066895604395604</v>
+        <v>-0.448074575411468</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0039420918855119</v>
+        <v>0.064251674547894</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.8023465125635</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.197748557665388</v>
+        <v>0.191434590530021</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0068965517241379</v>
       </c>
       <c r="H26" t="n">
-        <v>0.466101694915254</v>
+        <v>0.648275862068965</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003091287845737</v>
+        <v>-0.0110165889772416</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.000331398763804</v>
+        <v>-0.0343999433872238</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008892919327257</v>
+        <v>0.0100158206347631</v>
       </c>
       <c r="N26" t="n">
-        <v>1.54564392286886</v>
+        <v>-1.10165889772416</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.82249200936122</v>
+        <v>0.895878649141401</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.932203389830508</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.205</v>
+        <v>10.7</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.088776491122373</v>
+        <v>0.0198775510204086</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.366276833313955</v>
+        <v>-0.0068639853608248</v>
       </c>
       <c r="M27" t="n">
-        <v>0.021356935358882</v>
+        <v>0.0444370748189349</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.70560021368632</v>
+        <v>0.185771504863632</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.754725317986339</v>
+        <v>0.221175100064295</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0074074074074074</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="H28" t="n">
-        <v>0.659259259259259</v>
+        <v>0.141242937853107</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>0.01</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0111018739656714</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0141802456484722</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.043927976042314</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="N28" t="n">
-        <v>1.00926126960649</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.942876660201306</v>
+        <v>0.993357377536438</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.851851851851852</v>
+        <v>0.604519774011299</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.71</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0295350404312662</v>
+        <v>-4.05196355542095</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-7.28121561077979</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06267326688330239</v>
+        <v>-1.36724867789147</v>
       </c>
       <c r="N29" t="n">
-        <v>0.275770685632738</v>
+        <v>-5.06495444427619</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,43 +3098,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.519602557806178</v>
+        <v>0.960776194049594</v>
       </c>
       <c r="G30" t="n">
-        <v>0.103030303030303</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="H30" t="n">
-        <v>0.145454545454545</v>
+        <v>0.303571428571429</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0002001545416633</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001425644028103</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.995307592328165</v>
+        <v>0.901380943394259</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.497005988023952</v>
       </c>
       <c r="H31" t="n">
-        <v>0.624242424242424</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>0.001</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.53726708074534</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-8.527077626878921</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.49113038928407</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-5.67158385093168</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,34 +3280,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.92606279509679</v>
+        <v>0.458836101369275</v>
       </c>
       <c r="G32" t="n">
-        <v>0.794871794871795</v>
+        <v>0.311377245508982</v>
       </c>
       <c r="H32" t="n">
-        <v>0.320512820512821</v>
+        <v>0.580838323353293</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.049</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.673784895080118</v>
+        <v>0.9999999999753461</v>
       </c>
       <c r="G33" t="n">
-        <v>0.47741935483871</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07741935483870969</v>
+        <v>0.581395348837209</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.046647621962603</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0353759576072343</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0583360880081586</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.579473564752832</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.86829419984298</v>
+        <v>0.926461048342817</v>
       </c>
       <c r="G34" t="n">
-        <v>0.335483870967742</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H34" t="n">
-        <v>0.580645161290323</v>
+        <v>0.68361581920904</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0416</v>
+        <v>0.0505</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0004656967639001</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0010848052888299</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.35823059598e-06</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.922171809703299</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9999999999999</v>
+        <v>0.913810748725556</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6125</v>
+        <v>0.468926553672316</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.050000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0592331360863969</v>
+        <v>-0.002496866843395</v>
       </c>
       <c r="L35" t="n">
-        <v>0.047025054122528</v>
+        <v>-0.0061484564026138</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0711525974025974</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.735815355110521</v>
+        <v>-1.1889842111405</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.996836897620097</v>
+        <v>0.598470246208456</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5575757575757579</v>
+        <v>0.446327683615819</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.047</v>
+        <v>0.025</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0009122127872127</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0017476076555023</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0003006005392856</v>
+        <v>0.0003998357963875</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.94087827066551</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9859043615403</v>
+        <v>0.869976489163698</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.490909090909091</v>
+        <v>0.926553672316384</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.21</v>
+        <v>7.6</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0041809752747252</v>
+        <v>-0.07022832825001971</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0080364490384058</v>
+        <v>-0.290603097215925</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0009009725487143</v>
+        <v>0.0199208560106099</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.99094060701204</v>
+        <v>-0.924056950658154</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Rangitikei at u/s Bulls STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.908786371229391</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0121212121212121</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.454545454545455</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.000334478021978</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0007744626105765</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-1.45425226946966</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Very likely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1803259.6</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5548639.715</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Rangitikei at u/s Bulls STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.980984678913308</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.921212121212121</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.175600961538461</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.442646695991028</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.0198314742430078</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.53027322101529</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1803259.6</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5548639.715</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
+++ b/trend_results/Rivers/RangitikeiatusBullsSTP_79b2961e74.xlsx
@@ -139,46 +139,46 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -657,31 +657,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.141456281729897</v>
+        <v>0.0007779101270269</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.788461538461538</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8149999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="K2">
-        <v>-0.0519656048515338</v>
+        <v>-0.242476890756303</v>
       </c>
       <c r="L2">
-        <v>-0.180515182189557</v>
+        <v>-0.438080291606794</v>
       </c>
       <c r="M2">
-        <v>0.0395034045973022</v>
+        <v>-0.0883167562529462</v>
       </c>
       <c r="N2">
-        <v>-6.37614783454403</v>
+        <v>-41.8063604752246</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -728,31 +728,31 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.383733986980362</v>
+        <v>0.069644682843424</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.896551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.88</v>
+        <v>10.9</v>
       </c>
       <c r="K3">
-        <v>-0.026262126031863</v>
+        <v>-0.094908138736264</v>
       </c>
       <c r="L3">
-        <v>-0.108909137533539</v>
+        <v>-0.220831867219982</v>
       </c>
       <c r="M3">
-        <v>0.053510011692167</v>
+        <v>0.0015676504552479</v>
       </c>
       <c r="N3">
-        <v>-0.241379834851682</v>
+        <v>-0.870716869140037</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -799,31 +799,31 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.176241673112413</v>
+        <v>0.003316972275122</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.327586206896552</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K4">
-        <v>0.0003013613861386</v>
+        <v>0.0011343167701863</v>
       </c>
       <c r="L4">
-        <v>-0.0002314904093455</v>
+        <v>0.0004625968146908</v>
       </c>
       <c r="M4">
-        <v>0.0011968521313838</v>
+        <v>0.0019481226630188</v>
       </c>
       <c r="N4">
-        <v>3.17222511724857</v>
+        <v>12.6035196687371</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -870,31 +870,31 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.0505720276754553</v>
+        <v>0.184127255843718</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.637931034482759</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>63.5</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>9.90732368896926</v>
+        <v>7.22472527472527</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-2.99197505250458</v>
       </c>
       <c r="M5">
-        <v>20.8714285714286</v>
+        <v>24.0178541627326</v>
       </c>
       <c r="N5">
-        <v>15.6020845495579</v>
+        <v>9.89688393797983</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
@@ -941,16 +941,16 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.825453474429986</v>
+        <v>0.940197789960276</v>
       </c>
       <c r="G6">
-        <v>0.814814814814815</v>
+        <v>0.7962962962962959</v>
       </c>
       <c r="H6">
-        <v>0.333333333333333</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -1012,10 +1012,10 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>0.9981250802728751</v>
+        <v>0.994053249275727</v>
       </c>
       <c r="G7">
-        <v>0.5344827586206899</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="H7">
         <v>0.0689655172413793</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0002956584563964</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1083,31 +1083,31 @@
         <v>38</v>
       </c>
       <c r="F8">
-        <v>0.0111411723199141</v>
+        <v>0.0427471412644857</v>
       </c>
       <c r="G8">
-        <v>0.293103448275862</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H8">
-        <v>0.620689655172414</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="K8">
-        <v>0.0039711376477296</v>
+        <v>0.0044728546806966</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0085548299496174</v>
+        <v>0.016054945054945</v>
       </c>
       <c r="N8">
-        <v>9.23520383192937</v>
+        <v>9.723597131949269</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
@@ -1154,31 +1154,31 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.014274113693631</v>
+        <v>0.002394912135336</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8245614035087721</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.210000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K9">
-        <v>-0.0542201110627181</v>
+        <v>-0.0882543721140064</v>
       </c>
       <c r="L9">
-        <v>-0.100464484242737</v>
+        <v>-0.150760215780639</v>
       </c>
       <c r="M9">
-        <v>-0.0166983879257228</v>
+        <v>-0.0347276950231479</v>
       </c>
       <c r="N9">
-        <v>-0.660415481884508</v>
+        <v>-1.0855396323986</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -1219,40 +1219,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0097270581326189</v>
+        <v>0.0132888816825081</v>
       </c>
       <c r="G10">
-        <v>0.0689655172413793</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.810344827586207</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04575</v>
+        <v>0.04825</v>
       </c>
       <c r="K10">
-        <v>0.0051409262564061</v>
+        <v>0.0059638062409288</v>
       </c>
       <c r="L10">
-        <v>0.0010013905797897</v>
+        <v>0.0009787982466413</v>
       </c>
       <c r="M10">
-        <v>0.009144920145747</v>
+        <v>0.0160629714867223</v>
       </c>
       <c r="N10">
-        <v>11.236997281762</v>
+        <v>12.3602201884536</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1803259.6</v>
@@ -1293,37 +1293,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.2745648729564</v>
+        <v>0.354436518447652</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.5344827586206899</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K11">
-        <v>0.0058749446118397</v>
+        <v>0.0049829838912309</v>
       </c>
       <c r="L11">
-        <v>-0.0094632097243477</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M11">
-        <v>0.0200672656426021</v>
+        <v>0.0250858516483516</v>
       </c>
       <c r="N11">
-        <v>3.26385811768877</v>
+        <v>2.93116699484171</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1803259.6</v>
@@ -1358,43 +1358,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0607942317438832</v>
+        <v>0.0535656551470846</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.637931034482759</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="K12">
-        <v>0.0028249545040946</v>
+        <v>0.0028381649731022</v>
       </c>
       <c r="L12">
-        <v>-0.0003326798086329</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0050171703296703</v>
+        <v>0.0070048149697728</v>
       </c>
       <c r="N12">
-        <v>11.770643767061</v>
+        <v>12.3398477091401</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1803259.6</v>
@@ -1429,13 +1429,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.238517794468404</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1447,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4.885</v>
       </c>
       <c r="K13">
-        <v>0.009938775510203999</v>
+        <v>0.275386904761905</v>
       </c>
       <c r="L13">
-        <v>-0.472244085883524</v>
+        <v>-0.293277558473375</v>
       </c>
       <c r="M13">
-        <v>0.435303955371596</v>
+        <v>1.80399809796847</v>
       </c>
       <c r="N13">
-        <v>0.198775510204081</v>
+        <v>5.63739825510552</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q13">
         <v>1803259.6</v>
@@ -1506,37 +1506,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.473477428413331</v>
       </c>
       <c r="G14">
-        <v>0.009803921568627401</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="H14">
-        <v>0.754901960784314</v>
+        <v>0.755102040816326</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7</v>
+        <v>0.575</v>
       </c>
       <c r="K14">
-        <v>0.0004167617526243</v>
+        <v>-0.0008308689717925</v>
       </c>
       <c r="L14">
-        <v>-0.0358445764912812</v>
+        <v>-0.0325786385620926</v>
       </c>
       <c r="M14">
-        <v>0.0279041394873963</v>
+        <v>0.0211404771801931</v>
       </c>
       <c r="N14">
-        <v>0.0595373932320533</v>
+        <v>-0.144498951616094</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1803259.6</v>
@@ -1577,31 +1577,31 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.99127818363926</v>
+        <v>0.955668734446627</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.887931034482759</v>
+        <v>0.870689655172414</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.71</v>
+        <v>10.775</v>
       </c>
       <c r="K15">
-        <v>0.0333409402099497</v>
+        <v>0.025989326765189</v>
       </c>
       <c r="L15">
-        <v>0.0089437977215748</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0700399886102132</v>
+        <v>0.0577549073064342</v>
       </c>
       <c r="N15">
-        <v>0.311306631278708</v>
+        <v>0.241200248400826</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -1645,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.730672204375732</v>
+        <v>0.772521343545459</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1663,22 +1663,22 @@
         <v>0.01</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.0001180420339956</v>
       </c>
       <c r="L16">
-        <v>-0.0003334094020994</v>
+        <v>-0.0003880701398232</v>
       </c>
       <c r="M16">
-        <v>0.0001607189074636</v>
+        <v>0.0001248291182501</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-1.18042033995631</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q16">
         <v>1803259.6</v>
@@ -1719,37 +1719,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.6538092679404059</v>
+        <v>0.890829547690926</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.559322033898305</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>-0.636324041811847</v>
+        <v>-2.27570093457944</v>
       </c>
       <c r="L17">
-        <v>-4.01097322981837</v>
+        <v>-5.91434898571153</v>
       </c>
       <c r="M17">
-        <v>2.72041364586077</v>
+        <v>1.10801179507289</v>
       </c>
       <c r="N17">
-        <v>-0.922208756249053</v>
+        <v>-3.11739854051978</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q17">
         <v>1803259.6</v>
@@ -1790,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.344373041635594</v>
+        <v>0.231509967366397</v>
       </c>
       <c r="G18">
         <v>0.8738738738738741</v>
@@ -1820,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1803259.6</v>
@@ -1861,19 +1861,19 @@
         <v>38</v>
       </c>
       <c r="F19">
-        <v>0.991969124385604</v>
+        <v>0.998277387265749</v>
       </c>
       <c r="G19">
-        <v>0.449152542372881</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="H19">
-        <v>0.076271186440678</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0310567320434317</v>
+        <v>0.201055680516764</v>
       </c>
       <c r="G20">
         <v>0.330508474576271</v>
       </c>
       <c r="H20">
-        <v>0.61864406779661</v>
+        <v>0.601694915254237</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0393</v>
+        <v>0.046</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0008359019833608</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q20">
         <v>1803259.6</v>
@@ -2003,37 +2003,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.9627976805317719</v>
+        <v>0.824740281379634</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.608695652173913</v>
+        <v>0.6434782608695651</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.140000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K21">
-        <v>0.0159934318555008</v>
+        <v>0.0062542808219176</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.0052629221533963</v>
       </c>
       <c r="M21">
-        <v>0.0340032921731978</v>
+        <v>0.0272916099681255</v>
       </c>
       <c r="N21">
-        <v>0.196479506824335</v>
+        <v>0.0770231628314985</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1803259.6</v>
@@ -2071,31 +2071,31 @@
         <v>38</v>
       </c>
       <c r="F22">
-        <v>0.0647470631555874</v>
+        <v>0.266671123148129</v>
       </c>
       <c r="G22">
         <v>0.110169491525424</v>
       </c>
       <c r="H22">
-        <v>0.6610169491525421</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.04515</v>
+        <v>0.04825</v>
       </c>
       <c r="K22">
-        <v>0.0009845013477087999</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.0002985772225654</v>
       </c>
       <c r="M22">
-        <v>0.0025001148680041</v>
+        <v>0.0014988551484165</v>
       </c>
       <c r="N22">
-        <v>2.18051239802635</v>
+        <v>0.688803292677753</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
@@ -2142,13 +2142,13 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.375172068979992</v>
+        <v>0.84334403849466</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.525423728813559</v>
+        <v>0.466101694915254</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         <v>0.195</v>
       </c>
       <c r="K23">
-        <v>0.0004664042029137</v>
+        <v>-0.0025025693730729</v>
       </c>
       <c r="L23">
-        <v>-0.004297242413163</v>
+        <v>-0.0066895604395604</v>
       </c>
       <c r="M23">
-        <v>0.0050014114290315</v>
+        <v>0.0016643046061926</v>
       </c>
       <c r="N23">
-        <v>0.239181642519867</v>
+        <v>-1.28336890926819</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1803259.6</v>
@@ -2210,40 +2210,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.325908617525228</v>
+        <v>0.594318168073813</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.5169491525423729</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="K24">
-        <v>0.000224788067347</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0004969387755102</v>
+        <v>-0.0009846254346194999</v>
       </c>
       <c r="M24">
-        <v>0.001003390467801</v>
+        <v>0.0005037710850761</v>
       </c>
       <c r="N24">
-        <v>0.9366169472793781</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1803259.6</v>
@@ -2284,37 +2284,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.860697556049758</v>
+        <v>0.983842466961227</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.940677966101695</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.7</v>
+        <v>6.96</v>
       </c>
       <c r="K25">
-        <v>-0.120757216341755</v>
+        <v>-0.247519062346889</v>
       </c>
       <c r="L25">
-        <v>-0.448074575411468</v>
+        <v>-0.575759885019851</v>
       </c>
       <c r="M25">
-        <v>0.064251674547894</v>
+        <v>-0.048470905793825</v>
       </c>
       <c r="N25">
-        <v>-1.8023465125635</v>
+        <v>-3.556308367053</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1803259.6</v>
@@ -2355,37 +2355,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.191434590530021</v>
+        <v>0.040298126730407</v>
       </c>
       <c r="G26">
-        <v>0.0068965517241379</v>
+        <v>0.0070921985815602</v>
       </c>
       <c r="H26">
-        <v>0.648275862068965</v>
+        <v>0.673758865248227</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="K26">
-        <v>-0.0110165889772416</v>
+        <v>-0.0274953133872207</v>
       </c>
       <c r="L26">
-        <v>-0.0343999433872238</v>
+        <v>-0.0446412690961281</v>
       </c>
       <c r="M26">
-        <v>0.0100158206347631</v>
+        <v>-0.0017057489629871</v>
       </c>
       <c r="N26">
-        <v>-1.10165889772416</v>
+        <v>-3.31268835990611</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1803259.6</v>
@@ -2426,37 +2426,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.895878649141401</v>
+        <v>0.99721275813264</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.833333333333333</v>
+        <v>0.8218390804597701</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.7</v>
+        <v>10.695</v>
       </c>
       <c r="K27">
-        <v>0.0198775510204086</v>
+        <v>0.0333764849223272</v>
       </c>
       <c r="L27">
-        <v>-0.0068639853608248</v>
+        <v>0.0139171196448941</v>
       </c>
       <c r="M27">
-        <v>0.0444370748189349</v>
+        <v>0.057754907306434</v>
       </c>
       <c r="N27">
-        <v>0.185771504863632</v>
+        <v>0.312075595346678</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1803259.6</v>
@@ -2497,13 +2497,13 @@
         <v>38</v>
       </c>
       <c r="F28">
-        <v>0.221175100064295</v>
+        <v>0.383885890160375</v>
       </c>
       <c r="G28">
-        <v>0.096045197740113</v>
+        <v>0.07344632768361579</v>
       </c>
       <c r="H28">
-        <v>0.141242937853107</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-0.0001077116794379</v>
       </c>
       <c r="M28">
-        <v>0.0001999178981937</v>
+        <v>0.0001541369783855</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1803259.6</v>
@@ -2568,13 +2568,13 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.993357377536438</v>
+        <v>0.997310407283859</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.604519774011299</v>
+        <v>0.632768361581921</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2583,16 +2583,16 @@
         <v>80</v>
       </c>
       <c r="K29">
-        <v>-4.05196355542095</v>
+        <v>-4.41087274050326</v>
       </c>
       <c r="L29">
-        <v>-7.28121561077979</v>
+        <v>-7.02403846153846</v>
       </c>
       <c r="M29">
-        <v>-1.36724867789147</v>
+        <v>-1.61811349544776</v>
       </c>
       <c r="N29">
-        <v>-5.06495444427619</v>
+        <v>-5.51359092562907</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
@@ -2639,13 +2639,13 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.960776194049594</v>
+        <v>0.987627805664973</v>
       </c>
       <c r="G30">
-        <v>0.803571428571429</v>
+        <v>0.797619047619048</v>
       </c>
       <c r="H30">
-        <v>0.303571428571429</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="I30">
         <v>19</v>
@@ -2710,13 +2710,13 @@
         <v>38</v>
       </c>
       <c r="F31">
-        <v>0.901380943394259</v>
+        <v>0.961657894104216</v>
       </c>
       <c r="G31">
-        <v>0.497005988023952</v>
+        <v>0.514124293785311</v>
       </c>
       <c r="H31">
-        <v>0.0718562874251497</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2740,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q31">
         <v>1803259.6</v>
@@ -2781,19 +2781,19 @@
         <v>38</v>
       </c>
       <c r="F32">
-        <v>0.458836101369275</v>
+        <v>0.424326592488401</v>
       </c>
       <c r="G32">
-        <v>0.311377245508982</v>
+        <v>0.327683615819209</v>
       </c>
       <c r="H32">
-        <v>0.580838323353293</v>
+        <v>0.5649717514124289</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1803259.6</v>
@@ -2852,37 +2852,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.9999999999753461</v>
+        <v>0.999998924966131</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.581395348837209</v>
+        <v>0.552325581395349</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.050000000000001</v>
+        <v>8.085000000000001</v>
       </c>
       <c r="K33">
-        <v>0.046647621962603</v>
+        <v>0.030024878040106</v>
       </c>
       <c r="L33">
-        <v>0.0353759576072343</v>
+        <v>0.0196902891744522</v>
       </c>
       <c r="M33">
-        <v>0.0583360880081586</v>
+        <v>0.0404372842048475</v>
       </c>
       <c r="N33">
-        <v>0.579473564752832</v>
+        <v>0.371365220038416</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q33">
         <v>1803259.6</v>
@@ -2917,40 +2917,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>0.926461048342817</v>
+        <v>0.824172743233009</v>
       </c>
       <c r="G34">
-        <v>0.0847457627118644</v>
+        <v>0.07344632768361579</v>
       </c>
       <c r="H34">
-        <v>0.68361581920904</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0.0505</v>
       </c>
       <c r="K34">
-        <v>-0.0004656967639001</v>
+        <v>-0.0002644555980712</v>
       </c>
       <c r="L34">
-        <v>-0.0010848052888299</v>
+        <v>-0.0008340575361484</v>
       </c>
       <c r="M34">
-        <v>1.35823059598E-06</v>
+        <v>0.0002858455732303</v>
       </c>
       <c r="N34">
-        <v>-0.922171809703299</v>
+        <v>-0.523674451626207</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q34">
         <v>1803259.6</v>
@@ -2991,7 +2991,7 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.913810748725556</v>
+        <v>0.959516326400352</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3006,22 +3006,22 @@
         <v>0.21</v>
       </c>
       <c r="K35">
-        <v>-0.002496866843395</v>
+        <v>-0.0030666776793973</v>
       </c>
       <c r="L35">
-        <v>-0.0061484564026138</v>
+        <v>-0.0066694391901052</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-1.1889842111405</v>
+        <v>-1.46032270447494</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q35">
         <v>1803259.6</v>
@@ -3062,28 +3062,28 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.598470246208456</v>
+        <v>0.604136601841321</v>
       </c>
       <c r="G36">
         <v>0.0112994350282486</v>
       </c>
       <c r="H36">
-        <v>0.446327683615819</v>
+        <v>0.451977401129944</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0004969387755102</v>
+        <v>-0.0005042020807899</v>
       </c>
       <c r="M36">
-        <v>0.0003998357963875</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q36">
         <v>1803259.6</v>
@@ -3133,13 +3133,13 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.869976489163698</v>
+        <v>0.972326278056964</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.926553672316384</v>
+        <v>0.909604519774011</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3148,22 +3148,22 @@
         <v>7.6</v>
       </c>
       <c r="K37">
-        <v>-0.07022832825001971</v>
+        <v>-0.125139394081522</v>
       </c>
       <c r="L37">
-        <v>-0.290603097215925</v>
+        <v>-0.366433623159957</v>
       </c>
       <c r="M37">
-        <v>0.0199208560106099</v>
+        <v>-0.0115173676536003</v>
       </c>
       <c r="N37">
-        <v>-0.924056950658154</v>
+        <v>-1.64657097475687</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q37">
         <v>1803259.6</v>
